--- a/Picoscope/excel/graphrevised.xlsx
+++ b/Picoscope/excel/graphrevised.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12340" xr2:uid="{ED1222C0-38F2-481B-B370-BD08FAE3857C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{ED1222C0-38F2-481B-B370-BD08FAE3857C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,24 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Duration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>60s</t>
-  </si>
-  <si>
-    <t>1 Hour</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>30 days</t>
-  </si>
-  <si>
-    <t>1 year</t>
   </si>
   <si>
     <t>Update Period</t>
@@ -69,6 +54,15 @@
   </si>
   <si>
     <t>15551700s</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>9s</t>
   </si>
 </sst>
 </file>
@@ -106,16 +100,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,16 +160,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>The</a:t>
+              <a:t>Energy Consumption</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> energy consumption(J) of an fix period with different duratons</a:t>
+              <a:t> over 1 year</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -216,20 +208,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -240,41 +218,59 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Update Period</c:v>
+                  <c:v>1s</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1s</c:v>
+                  <c:v>7s</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9s</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10s</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>60s</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1800s</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3600s</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>14399s</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14400s</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>15551700s</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>15552000s</c:v>
                 </c:pt>
               </c:strCache>
@@ -282,36 +278,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7329470.9759999998</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31080000000000002</c:v>
+                  <c:v>9485627.8422857206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27823566</c:v>
+                  <c:v>8341511.5159200002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6572610000000007E-2</c:v>
+                  <c:v>7451643.2620799998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>6739748.659008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>1400539.1359679999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>368291.96151360002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>350494.59643680003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>337146.88163269102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1</c:v>
+                  <c:v>352836.73337159998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>332715.87940677098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>332718.38386198098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,530 +324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB10-4ECF-8933-BD75E67BBE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1 Hour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Update Period</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3600s</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14399s</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14400s</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15551700s</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15552000s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>18.648</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.6941396</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7943566000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10706522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0732609999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB10-4ECF-8933-BD75E67BBE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1 day</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Update Period</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3600s</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14399s</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14400s</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15551700s</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15552000s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>447.55200000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400.65935039999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.06455840000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.56956528</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.45758264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62361496659490245</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7088336600000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EB10-4ECF-8933-BD75E67BBE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30 days</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Update Period</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3600s</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14399s</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14400s</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15551700s</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15552000s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>13426.56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12019.780512000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2011.9367520000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.0869584</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.727479199999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.708448997847075</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51.265009800000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EB10-4ECF-8933-BD75E67BBE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1 year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Update Period</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3600s</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14399s</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14400s</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15551700s</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15552000s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>163356.48000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>146240.66289600002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24478.563816000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>937.89132720000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532.01766359999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>227.619462807139</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>623.72428590000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>126.60473137450954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126.66795873694444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EB10-4ECF-8933-BD75E67BBE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1 year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Update Period</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1s</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10s</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800s</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3600s</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14399s</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14400s</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15551700s</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15552000s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EB10-4ECF-8933-BD75E67BBE4D}"/>
+              <c16:uniqueId val="{00000000-4F84-4965-8F30-90EA15BA2194}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -854,17 +336,91 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296306392"/>
-        <c:axId val="296307048"/>
+        <c:axId val="453441424"/>
+        <c:axId val="453437160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296306392"/>
+        <c:axId val="453441424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Update</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> period</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38185906139223991"/>
+              <c:y val="0.79995867768595041"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -902,7 +458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296307048"/>
+        <c:crossAx val="453437160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -910,9 +466,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296307048"/>
+        <c:axId val="453437160"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -931,6 +486,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Consumption(J)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -962,7 +577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296306392"/>
+        <c:crossAx val="453441424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,37 +589,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1090,7 +674,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1198,11 +782,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1213,11 +792,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1249,9 +823,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1609,23 +1180,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>61686</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>518886</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605971</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD77253-CB80-4A50-AED2-C624844DAB72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0CC18C-D8FA-46BB-8A35-DE1A263AE50F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,230 +1514,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C5922D-2D9A-4886-A384-C61E90155CD4}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7329470.9759999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9485627.8422857206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8341511.5159200002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7451643.2620799998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6739748.659008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
+      <c r="B9" s="1">
+        <v>1400539.1359679999</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B10" s="1">
+        <v>368291.96151360002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="1">
+        <v>350494.59643680003</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>337146.88163269102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
+      <c r="B13" s="1">
+        <v>352836.73337159998</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>332715.87940677098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.31080000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18.648</v>
-      </c>
-      <c r="D4" s="1">
-        <v>447.55200000000002</v>
-      </c>
-      <c r="E4" s="2">
-        <v>13426.56</v>
-      </c>
-      <c r="F4" s="2">
-        <v>163356.48000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.27823566</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16.6941396</v>
-      </c>
-      <c r="D5" s="1">
-        <v>400.65935039999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12019.780512000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>146240.66289600002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4.6572610000000007E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.7943566000000004</v>
-      </c>
-      <c r="D6" s="1">
-        <v>67.06455840000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2011.9367520000003</v>
-      </c>
-      <c r="F6" s="1">
-        <v>24478.563816000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.10706522</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.56956528</v>
-      </c>
-      <c r="E7" s="1">
-        <v>77.0869584</v>
-      </c>
-      <c r="F7" s="1">
-        <v>937.89132720000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.0732609999999999E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.45758264</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43.727479199999998</v>
-      </c>
-      <c r="F8" s="1">
-        <v>532.01766359999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.62361496659490245</v>
-      </c>
-      <c r="E9" s="1">
-        <v>18.708448997847075</v>
-      </c>
-      <c r="F9" s="1">
-        <v>227.619462807139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.7088336600000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>51.265009800000009</v>
-      </c>
-      <c r="F10" s="1">
-        <v>623.72428590000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>126.60473137450954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>126.66795873694444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B15" s="1">
+        <v>332718.38386198098</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
